--- a/biology/Biochimie/Plasmine/Plasmine.xlsx
+++ b/biology/Biochimie/Plasmine/Plasmine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La plasmine est une peptidase qui catalyse l'hydrolyse des liaisons peptidiques situées préférentiellement après un résidu de lysine ou un résidu d'arginine. Elle possède à cet égard une plus grande sélectivité que la trypsine.
 Cette enzyme intervient en lysant la fibrine dans le processus de fibrinolyse, étape indispensable de la coagulation sanguine. Elle provient de l'activation du plasminogène par l'urokinase et par l'activateur tissulaire du plasminogène.
@@ -514,9 +526,11 @@
           <t>Pathologies associées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le déficit en plasminogène est une maladie rare faiblement associée à une thrombophilie[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le déficit en plasminogène est une maladie rare faiblement associée à une thrombophilie.
 Sur les autres projets Wikimedia :
 Plasmine, sur Wikimedia Commons
 </t>
